--- a/docs/CodeSystem-CodeSystem-edit-flags.xlsx
+++ b/docs/CodeSystem-CodeSystem-edit-flags.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CodeSystem - Birth Edit Flags</t>
+    <t>Birth Edit Flags</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-CodeSystem-edit-flags.xlsx
+++ b/docs/CodeSystem-CodeSystem-edit-flags.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-CodeSystem-edit-flags.xlsx
+++ b/docs/CodeSystem-CodeSystem-edit-flags.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This code system contains codes to represent edit flags specific to BFDR. Additional edit flag codes are located in [CodeSystemEditFlagsVitalRecords]</t>
+    <t>This code system contains codes to represent edit flags specific to BFDR. Additional edit flag codes are located in [CodeSystemEditFlagsVitalRecords](https://hl7.org/fhir/us/vr-common-library/2024Jan/CodeSystem-CodeSystem-vr-edit-flags.html)</t>
   </si>
   <si>
     <t>Purpose</t>
